--- a/biology/Botanique/Galeopsis_segetum/Galeopsis_segetum.xlsx
+++ b/biology/Botanique/Galeopsis_segetum/Galeopsis_segetum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeopsis segetum, la Galéopside douteuse ou Galéopside des champs, est une espèce de plantes herbacées du genre Galeopsis et de la famille des Lamiacées. Elle ressemble à la grande ortie, mais appartient à un genre différent et n'est pas urticante.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Galeopsis dubia
 G. villosa Huds.
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante pouvant atteindre 10 à 50 cm de hauteur, comportant une tige velue. Les feuilles sont lancéolées, épaisses, légèrement velues et profondément nervurées. Les fleurs, jaunes, sont longues, regroupées en grappes et possèdent un calice épineux.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeopsis segetum affectionne les rocailles, les graviers, les sols sableux. On le rencontre surtout sur sol siliceux. Il est réparti très irrégulièrement en Europe occidentale et centrale. Il est présent en Allemagne et au Danemark mais en régression dans ces deux pays, il est rare en Suisse et en Italie. En France, on ne le trouve guère que dans le Massif central (où il n'est pas menacé) et les Vosges. Ailleurs dans le pays, il est rare et en régression.
 </t>
@@ -605,7 +623,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Reminéralisante en raison de sa haute teneur en silice ;
 Utilisée dans le traitement de la tuberculose ;
